--- a/DDAf_2022_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -112,7 +112,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -157,13 +157,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -181,7 +181,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -250,7 +250,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -262,7 +262,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -364,7 +364,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -382,7 +382,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -400,7 +400,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
   <si>
     <t>Tableau 15 : Indicateurs de santé de base</t>
   </si>
@@ -1305,11 +1302,9 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -1321,42 +1316,42 @@
     </row>
     <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="12">
         <v>61.381999999999998</v>
@@ -1385,10 +1380,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="15">
         <v>69.474999999999994</v>
@@ -1417,10 +1412,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="19">
         <v>60.1815</v>
@@ -1449,10 +1444,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="19">
         <v>54.579500000000003</v>
@@ -1481,10 +1476,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="19">
         <v>64.526499999999999</v>
@@ -1513,10 +1508,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="19">
         <v>61.091000000000001</v>
@@ -1545,10 +1540,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="19">
         <v>63.9435</v>
@@ -1577,10 +1572,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="19">
         <v>64.247500000000002</v>
@@ -1609,10 +1604,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="15">
         <v>63.977499999999999</v>
@@ -1641,10 +1636,10 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="22">
         <v>61.494</v>
@@ -1673,10 +1668,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="26">
         <v>62.489800000000002</v>
@@ -1705,10 +1700,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="19">
         <v>61.869500000000002</v>
@@ -1732,15 +1727,15 @@
         <v>186.05294000000001</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="19">
         <v>59.545499999999997</v>
@@ -1769,10 +1764,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="19">
         <v>53.515000000000001</v>
@@ -1801,10 +1796,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="12">
         <v>54.486499999999999</v>
@@ -1833,10 +1828,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="12">
         <v>64.682500000000005</v>
@@ -1865,10 +1860,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="C19" s="15">
         <v>60.905999999999999</v>
@@ -1897,10 +1892,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="12">
         <v>59.033499999999997</v>
@@ -1924,15 +1919,15 @@
         <v>200.304565</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="C21" s="12">
         <v>66.543999999999997</v>
@@ -1961,10 +1956,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="C22" s="19">
         <v>70.528999999999996</v>
@@ -1988,15 +1983,15 @@
         <v>68.535920000000004</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="26">
         <v>61.2346111111111</v>
@@ -2025,10 +2020,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="19">
         <v>64.504499999999993</v>
@@ -2052,15 +2047,15 @@
         <v>135.11456999999999</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="19">
         <v>67.206000000000003</v>
@@ -2089,10 +2084,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="19">
         <v>66.611500000000007</v>
@@ -2116,15 +2111,15 @@
         <v>99.011915000000002</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="19">
         <v>66.89</v>
@@ -2153,10 +2148,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="C28" s="19">
         <v>66.823999999999998</v>
@@ -2185,10 +2180,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="19">
         <v>67.350499999999997</v>
@@ -2217,10 +2212,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="19">
         <v>75.137500000000003</v>
@@ -2249,10 +2244,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="C31" s="19">
         <v>69.218000000000004</v>
@@ -2281,10 +2276,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="19">
         <v>73.517499999999998</v>
@@ -2308,15 +2303,15 @@
         <v>49.7654700000001</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="19">
         <v>57.64</v>
@@ -2345,10 +2340,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="15">
         <v>58.081000000000003</v>
@@ -2372,15 +2367,15 @@
         <v>234.606435</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="19">
         <v>65.517499999999998</v>
@@ -2409,10 +2404,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="19">
         <v>65.616500000000002</v>
@@ -2441,10 +2436,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="19">
         <v>63.566000000000003</v>
@@ -2473,10 +2468,10 @@
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="26">
         <v>66.262892857142901</v>
@@ -2505,10 +2500,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="12">
         <v>77.046999999999997</v>
@@ -2537,10 +2532,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="19">
         <v>72.14</v>
@@ -2569,10 +2564,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="12">
         <v>73.069500000000005</v>
@@ -2596,15 +2591,15 @@
         <v>49.723219999999998</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="12">
         <v>65.087500000000006</v>
@@ -2633,10 +2628,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="C43" s="19">
         <v>76.878500000000003</v>
@@ -2665,10 +2660,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="19">
         <v>76.887</v>
@@ -2697,10 +2692,10 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="26">
         <v>73.518249999999995</v>
@@ -2729,10 +2724,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="C46" s="19">
         <v>62.072000000000003</v>
@@ -2761,10 +2756,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C47" s="19">
         <v>61.945999999999998</v>
@@ -2793,10 +2788,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="C48" s="19">
         <v>73.141000000000005</v>
@@ -2825,10 +2820,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="19">
         <v>57.9955</v>
@@ -2857,10 +2852,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="19">
         <v>62.397500000000001</v>
@@ -2889,10 +2884,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="15">
         <v>64.296499999999995</v>
@@ -2921,10 +2916,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="19">
         <v>61.841000000000001</v>
@@ -2953,10 +2948,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C53" s="19">
         <v>58.598500000000001</v>
@@ -2985,10 +2980,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="C54" s="19">
         <v>64.298500000000004</v>
@@ -3017,10 +3012,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="C55" s="19">
         <v>59.6235</v>
@@ -3049,10 +3044,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="C56" s="19">
         <v>62.710500000000003</v>
@@ -3081,10 +3076,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="C57" s="12">
         <v>54.963999999999999</v>
@@ -3113,10 +3108,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="C58" s="19">
         <v>68.168499999999995</v>
@@ -3145,10 +3140,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="C59" s="19">
         <v>54.991500000000002</v>
@@ -3177,10 +3172,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="15">
         <v>61.326999999999998</v>
@@ -3210,7 +3205,7 @@
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="26">
         <v>61.891433333333303</v>
@@ -3240,7 +3235,7 @@
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="32">
         <v>64.317981481481496</v>
@@ -3270,7 +3265,7 @@
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="32">
         <v>76.019329457364407</v>
@@ -3300,7 +3295,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="36">
         <v>75.0885161290323</v>
@@ -3330,7 +3325,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="39">
         <v>72.188183333333399</v>
@@ -3360,7 +3355,7 @@
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="42">
         <v>72.566472677595698</v>
@@ -3390,7 +3385,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="39">
         <v>66.620690476190504</v>
@@ -3420,7 +3415,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="39">
         <v>63.379019999999997</v>
@@ -3450,7 +3445,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="39">
         <v>64.195833333333397</v>
@@ -3480,7 +3475,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="39">
         <v>61.973772727272703</v>
@@ -3510,7 +3505,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="39">
         <v>61.891433333333303</v>
@@ -3540,7 +3535,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="39">
         <v>64.042000000000002</v>
@@ -3570,7 +3565,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="39">
         <v>64.495656249999996</v>
@@ -3600,7 +3595,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="39">
         <v>73.793899999999994</v>
@@ -3630,7 +3625,7 @@
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="42">
         <v>63.962499999999999</v>
@@ -3660,7 +3655,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="39">
         <v>73.746049999999997</v>
@@ -3690,7 +3685,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="39">
         <v>75.244583333333395</v>
@@ -3720,7 +3715,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="39">
         <v>80.423500000000004</v>
@@ -3750,7 +3745,7 @@
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="42">
         <v>81.015394736842097</v>
@@ -3780,7 +3775,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="39">
         <v>64.032944444444496</v>
@@ -3810,7 +3805,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="39">
         <v>73.556925000000007</v>
@@ -3840,7 +3835,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="39">
         <v>64.374988888888893</v>
@@ -3870,7 +3865,7 @@
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="42">
         <v>76.471146788990794</v>
@@ -3900,7 +3895,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="39">
         <v>61.695782608695701</v>
@@ -3930,7 +3925,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="39">
         <v>69.370374999999996</v>
@@ -3960,7 +3955,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="39">
         <v>65.617391304347905</v>
@@ -3990,7 +3985,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="39">
         <v>71.3065</v>
@@ -4020,7 +4015,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="39">
         <v>67.350071428571397</v>
@@ -4050,7 +4045,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="39">
         <v>75.105325581395405</v>
@@ -4080,7 +4075,7 @@
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="42">
         <v>80.201274509803994</v>
@@ -4110,7 +4105,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="39">
         <v>62.488666666666703</v>
@@ -4140,7 +4135,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="39">
         <v>69.144846153846203</v>
@@ -4170,7 +4165,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="39">
         <v>69.238</v>
@@ -4200,7 +4195,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="39">
         <v>73.119500000000002</v>
@@ -4230,7 +4225,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="39">
         <v>61.633749999999999</v>
@@ -4260,7 +4255,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" s="42">
         <v>71.569937499999995</v>
@@ -4290,7 +4285,7 @@
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" s="39">
         <v>61.767621621621601</v>
@@ -4320,7 +4315,7 @@
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C98" s="39">
         <v>70.571657894736902</v>
@@ -4350,7 +4345,7 @@
     <row r="99" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" s="42">
         <v>62.825153846153903</v>
@@ -4412,7 +4407,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101" s="49"/>
       <c r="C101" s="50"/>
@@ -4431,7 +4426,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B102" s="49"/>
       <c r="C102" s="50"/>
@@ -4450,7 +4445,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" s="49"/>
       <c r="C103" s="50"/>
@@ -4469,7 +4464,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B104" s="49"/>
       <c r="C104" s="50"/>
@@ -4488,7 +4483,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="49"/>
       <c r="C105" s="50"/>
@@ -4539,7 +4534,7 @@
     </row>
     <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" s="50"/>
       <c r="D108" s="50"/>
@@ -4573,7 +4568,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
@@ -4591,7 +4586,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="50"/>
       <c r="D111" s="50"/>
@@ -4625,7 +4620,7 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="50"/>
       <c r="D113" s="50"/>
@@ -4643,7 +4638,7 @@
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C114" s="50"/>
       <c r="D114" s="50"/>
@@ -4672,7 +4667,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="172">
   <si>
     <t>Tableau 15 : Indicateurs de santé de base</t>
   </si>
@@ -490,19 +490,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -517,7 +520,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Département des affaires économiques et sociales des Nations Unies, Division de la population, Perspectives de la population mondiale : révision 2019 et Perspectives de l'urbanisation mondiale : révision de 2018, Global Hunger Index de Welthungerhilfe and Concern Worldwide (édition 2021).</t>
@@ -3871,7 +3874,7 @@
         <v>76.471146788990794</v>
       </c>
       <c r="D83" s="42">
-        <v>79.051834862385306</v>
+        <v>79.051834862385405</v>
       </c>
       <c r="E83" s="43">
         <v>73.894495412843995</v>
@@ -4138,25 +4141,25 @@
         <v>154</v>
       </c>
       <c r="C92" s="39">
-        <v>69.144846153846203</v>
+        <v>69.022083333333299</v>
       </c>
       <c r="D92" s="39">
-        <v>71.148461538461603</v>
+        <v>71.050416666666706</v>
       </c>
       <c r="E92" s="40">
-        <v>67.174615384615393</v>
+        <v>67.014583333333405</v>
       </c>
       <c r="F92" s="39">
-        <v>2.9993346153846199</v>
+        <v>2.9401333333333302</v>
       </c>
       <c r="G92" s="39">
-        <v>32.052423076923098</v>
+        <v>32.9947083333333</v>
       </c>
       <c r="H92" s="39">
-        <v>40.908499999999997</v>
+        <v>42.256374999999998</v>
       </c>
       <c r="I92" s="40">
-        <v>91.620699615384595</v>
+        <v>94.867045833333407</v>
       </c>
       <c r="J92" s="40">
         <v>24.96</v>
@@ -4216,7 +4219,7 @@
         <v>21.919634615384599</v>
       </c>
       <c r="I94" s="40">
-        <v>61.801471730769201</v>
+        <v>61.8014717307693</v>
       </c>
       <c r="J94" s="40">
         <v>15.409090909090899</v>
@@ -4255,7 +4258,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="42">
         <v>71.569937499999995</v>
@@ -4285,7 +4288,7 @@
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="39">
         <v>61.767621621621601</v>
@@ -4315,7 +4318,7 @@
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C98" s="39">
         <v>70.571657894736902</v>
@@ -4345,7 +4348,7 @@
     <row r="99" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C99" s="42">
         <v>62.825153846153903</v>
@@ -4407,7 +4410,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="49"/>
       <c r="C101" s="50"/>
@@ -4426,7 +4429,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102" s="49"/>
       <c r="C102" s="50"/>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B103" s="49"/>
       <c r="C103" s="50"/>
@@ -4464,7 +4467,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B104" s="49"/>
       <c r="C104" s="50"/>
@@ -4483,7 +4486,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B105" s="49"/>
       <c r="C105" s="50"/>
@@ -4534,7 +4537,7 @@
     </row>
     <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108" s="50"/>
       <c r="D108" s="50"/>
@@ -4568,7 +4571,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
@@ -4586,7 +4589,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C111" s="50"/>
       <c r="D111" s="50"/>
@@ -4620,7 +4623,7 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C113" s="50"/>
       <c r="D113" s="50"/>
@@ -4638,7 +4641,7 @@
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C114" s="50"/>
       <c r="D114" s="50"/>

--- a/DDAf_2022_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     <t>Source : Département des affaires économiques et sociales des Nations Unies, Division de la population, Perspectives de la population mondiale : révision 2019 et Perspectives de l'urbanisation mondiale : révision de 2018, Global Hunger Index de Welthungerhilfe and Concern Worldwide (édition 2021).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -4670,7 +4670,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
